--- a/SMR.xlsx
+++ b/SMR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DE198-6438-40DA-B451-158F381077EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C7358D-25B3-4C42-A20B-C0E023EF5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{0D7914DB-D673-4B26-893A-504C848C6134}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{0D7914DB-D673-4B26-893A-504C848C6134}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +125,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -141,12 +139,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,16 +181,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,46 +530,47 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>11.26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="4">
         <f>94.715714+154.464753</f>
         <v>249.18046700000002</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="4">
@@ -565,31 +578,31 @@
         <v>2805.7720584200001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="4">
         <f>130.934+5.1</f>
         <v>136.03399999999999</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="4">
@@ -597,28 +610,28 @@
         <v>2669.73805842</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -635,48 +648,49 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
